--- a/dados/Relatório de Atividades 2021.xlsx
+++ b/dados/Relatório de Atividades 2021.xlsx
@@ -1,6 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\Desktop\R_STF\Relatorio_R\Git\Code-Relatorio\dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC44809-71FE-4D25-8EBA-9F7E143F4E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
     <sheet name="Acervo" sheetId="2" r:id="rId2"/>
@@ -13,6 +24,18 @@
     <sheet name="Baixados" sheetId="9" r:id="rId9"/>
     <sheet name="Despacho" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -715,14 +738,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="172" formatCode="General"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0%"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00%"/>
-    <numFmt numFmtId="175" formatCode="d\/m\/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="166" formatCode="d\/m\/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -730,26 +752,43 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00333333"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="00333333"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -757,10 +796,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -797,215 +833,287 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </left>
       <right style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </right>
       <top style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </top>
       <bottom style="thin">
-        <color rgb="00A5A5B1"/>
+        <color rgb="FFA5A5B1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </left>
       <right style="thin">
-        <color rgb="0009558F"/>
+        <color rgb="FF09558F"/>
       </right>
       <top style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </top>
       <bottom style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00EBEBEB"/>
+        <color rgb="FFEBEBEB"/>
       </left>
       <right style="thin">
-        <color rgb="00EBEBEB"/>
+        <color rgb="FFEBEBEB"/>
       </right>
       <top style="thin">
-        <color rgb="00EBEBEB"/>
+        <color rgb="FFEBEBEB"/>
       </top>
       <bottom style="thin">
-        <color rgb="00EBEBEB"/>
+        <color rgb="FFEBEBEB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </left>
       <right style="thin">
-        <color rgb="0009558F"/>
+        <color rgb="FF09558F"/>
       </right>
       <top style="thin">
-        <color rgb="00CAC9D9"/>
+        <color rgb="FFCAC9D9"/>
       </top>
       <bottom style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00EBEBEB"/>
+        <color rgb="FFEBEBEB"/>
       </left>
       <right style="thin">
-        <color rgb="00EBEBEB"/>
+        <color rgb="FFEBEBEB"/>
       </right>
       <top style="thin">
-        <color rgb="00CAC9D9"/>
+        <color rgb="FFCAC9D9"/>
       </top>
       <bottom style="thin">
-        <color rgb="00EBEBEB"/>
+        <color rgb="FFEBEBEB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </left>
       <right style="thin">
-        <color rgb="003877A6"/>
+        <color rgb="FF3877A6"/>
       </right>
       <top style="thin">
-        <color rgb="00CAC9D9"/>
+        <color rgb="FFCAC9D9"/>
       </top>
       <bottom style="thin">
-        <color rgb="00A5A5B1"/>
+        <color rgb="FFA5A5B1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+  <cellXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="5" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="5" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1026,7 +1134,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1064,7 +1178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:2"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Inserted picture RelID:2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1102,13 +1222,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:3"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Inserted picture RelID:3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1140,13 +1266,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:4"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Inserted picture RelID:4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1178,13 +1310,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:5"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Inserted picture RelID:5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1216,13 +1354,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:6"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Inserted picture RelID:6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,13 +1398,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:7"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Inserted picture RelID:7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1292,13 +1442,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:8"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Inserted picture RelID:8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1330,13 +1486,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:9"/>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Inserted picture RelID:9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1368,13 +1530,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:10"/>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Inserted picture RelID:10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1406,13 +1574,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:11"/>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Inserted picture RelID:11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1444,13 +1618,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:12"/>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Inserted picture RelID:12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1482,13 +1662,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:13"/>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Inserted picture RelID:13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1520,13 +1706,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Inserted picture RelID:14"/>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Inserted picture RelID:14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1563,7 +1755,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1601,7 +1799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:2"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Inserted picture RelID:2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1639,13 +1843,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:3"/>
+        <xdr:cNvPr id="4" name="Picture 2" descr="Inserted picture RelID:3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1677,13 +1887,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:4"/>
+        <xdr:cNvPr id="5" name="Picture 2" descr="Inserted picture RelID:4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1715,13 +1931,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:5"/>
+        <xdr:cNvPr id="6" name="Picture 2" descr="Inserted picture RelID:5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,13 +1975,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:6"/>
+        <xdr:cNvPr id="7" name="Picture 2" descr="Inserted picture RelID:6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1791,13 +2019,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:7"/>
+        <xdr:cNvPr id="8" name="Picture 2" descr="Inserted picture RelID:7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1829,13 +2063,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:8"/>
+        <xdr:cNvPr id="9" name="Picture 2" descr="Inserted picture RelID:8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1867,13 +2107,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:9"/>
+        <xdr:cNvPr id="10" name="Picture 2" descr="Inserted picture RelID:9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1905,13 +2151,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Inserted picture RelID:10"/>
+        <xdr:cNvPr id="11" name="Picture 2" descr="Inserted picture RelID:10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1948,7 +2200,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="3" name="Picture 3" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1991,7 +2249,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="4" name="Picture 4" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2029,13 +2293,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4" descr="Inserted picture RelID:2"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Inserted picture RelID:2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2067,13 +2337,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4" descr="Inserted picture RelID:3"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="Inserted picture RelID:3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2110,7 +2386,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="5" name="Picture 5" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2148,7 +2430,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5" descr="Inserted picture RelID:2"/>
+        <xdr:cNvPr id="2" name="Picture 5" descr="Inserted picture RelID:2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2191,7 +2479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="6" name="Picture 6" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2229,13 +2523,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6" descr="Inserted picture RelID:2"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="Inserted picture RelID:2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2267,13 +2567,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6" descr="Inserted picture RelID:3"/>
+        <xdr:cNvPr id="3" name="Picture 6" descr="Inserted picture RelID:3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2305,13 +2611,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6" descr="Inserted picture RelID:4"/>
+        <xdr:cNvPr id="4" name="Picture 6" descr="Inserted picture RelID:4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2348,7 +2660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 7" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="7" name="Picture 7" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2391,7 +2709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 8" descr="Inserted picture RelID:1"/>
+        <xdr:cNvPr id="8" name="Picture 8" descr="Inserted picture RelID:1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2417,26 +2741,323 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.454436" customWidth="1"/>
-    <col min="5" max="5" width="8.18754" customWidth="1"/>
-    <col min="6" max="8" width="15.454436" customWidth="1"/>
-    <col min="9" max="9" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2447,10 +3068,10 @@
         <v>9629</v>
       </c>
       <c r="D3" s="6">
-        <v>428889.581755824e-6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.42888958175582398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2461,10 +3082,10 @@
         <v>12822</v>
       </c>
       <c r="D4" s="8">
-        <v>571110.418244176e-6</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.57111041824417597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -2476,16 +3097,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="25.5984" customHeight="1"/>
-    <row r="7" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2496,10 +3115,10 @@
         <v>21343</v>
       </c>
       <c r="D8" s="6">
-        <v>296813.940228351e-6</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.296813940228351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2510,10 +3129,10 @@
         <v>50564</v>
       </c>
       <c r="D9" s="8">
-        <v>703186.05977165e-6</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.70318605977165005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
@@ -2525,16 +3144,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.6655" customHeight="1"/>
-    <row r="12" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30.3981" customHeight="1">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -2545,10 +3162,10 @@
         <v>817</v>
       </c>
       <c r="D13" s="8">
-        <v>18206.5338503365e-6</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30.3981" customHeight="1">
+        <v>1.82065338503365E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
@@ -2559,10 +3176,10 @@
         <v>44057</v>
       </c>
       <c r="D14" s="8">
-        <v>981793.466149664e-6</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.98179346614966401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
         <v>4</v>
@@ -2574,21 +3191,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.2654" customHeight="1"/>
-    <row r="17" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30.3981" customHeight="1">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +3213,7 @@
         <v>20344</v>
       </c>
       <c r="D18" s="8">
-        <v>660862.785862786e-6</v>
+        <v>0.66086278586278602</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>7</v>
@@ -2608,10 +3222,10 @@
         <v>30784</v>
       </c>
       <c r="H18" s="8">
-        <v>406883.607814111e-6</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30.3981" customHeight="1">
+        <v>0.40688360781411098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +3236,7 @@
         <v>10440</v>
       </c>
       <c r="D19" s="8">
-        <v>339137.214137214e-6</v>
+        <v>0.33913721413721398</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>8</v>
@@ -2631,10 +3245,10 @@
         <v>44874</v>
       </c>
       <c r="H19" s="8">
-        <v>593116.392185889e-6</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.59311639218588896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
         <v>4</v>
@@ -2653,10 +3267,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="23.9985" customHeight="1"/>
-    <row r="22" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="19" t="s">
         <v>9</v>
       </c>
@@ -2664,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>10</v>
       </c>
@@ -2675,10 +3287,10 @@
         <v>14379</v>
       </c>
       <c r="D23" s="8">
-        <v>157626.449759926e-6</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30.3981" customHeight="1">
+        <v>0.15762644975992601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
@@ -2689,10 +3301,10 @@
         <v>76842</v>
       </c>
       <c r="D24" s="8">
-        <v>842362.5879722e-6</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30.3981" customHeight="1">
+        <v>0.84236258797219998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>10</v>
       </c>
@@ -2703,10 +3315,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="8">
-        <v>10.9622678739778e-6</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>1.09622678739778E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="18" t="s">
         <v>4</v>
@@ -2718,10 +3330,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="12.2659" customHeight="1"/>
-    <row r="28" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="19" t="s">
         <v>9</v>
       </c>
@@ -2729,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="30.3981" customHeight="1">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
@@ -2740,10 +3350,10 @@
         <v>8176</v>
       </c>
       <c r="D29" s="8">
-        <v>470344.589541506e-6</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30.3981" customHeight="1">
+        <v>0.47034458954150599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>14</v>
       </c>
@@ -2754,10 +3364,10 @@
         <v>9207</v>
       </c>
       <c r="D30" s="8">
-        <v>529655.410458494e-6</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.52965541045849396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="18" t="s">
         <v>4</v>
@@ -2769,16 +3379,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="24.5318" customHeight="1"/>
-    <row r="33" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -2789,10 +3397,10 @@
         <v>24878</v>
       </c>
       <c r="D34" s="8">
-        <v>337617.218776718e-6</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.33761721877671802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -2803,10 +3411,10 @@
         <v>48809</v>
       </c>
       <c r="D35" s="8">
-        <v>662382.781223282e-6</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.66238278122328198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>4</v>
@@ -2818,142 +3426,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="69.329" customHeight="1"/>
+    <row r="1" s="1" customFormat="1" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.454436" customWidth="1"/>
-    <col min="2" max="2" width="4.82218" customWidth="1"/>
-    <col min="3" max="3" width="4.53317733333333" customWidth="1"/>
-    <col min="4" max="4" width="4.82218" customWidth="1"/>
-    <col min="5" max="6" width="10.0660573333333" customWidth="1"/>
-    <col min="7" max="7" width="4.53698" customWidth="1"/>
-    <col min="8" max="8" width="2.90183333333333" customWidth="1"/>
-    <col min="9" max="9" width="6.453524" customWidth="1"/>
-    <col min="10" max="10" width="13.6823933333333" customWidth="1"/>
-    <col min="11" max="11" width="10.0660573333333" customWidth="1"/>
-    <col min="12" max="12" width="10.7163133333333" customWidth="1"/>
-    <col min="13" max="13" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.999" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="28.7982" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.7982" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
+      <c r="B3" s="40"/>
+      <c r="C3" s="44">
         <v>1305</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="5">
         <v>924</v>
       </c>
       <c r="F3" s="11">
         <v>2229</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="5">
         <v>22384</v>
       </c>
       <c r="L3" s="22">
-        <v>997015.723130373e-6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="28.7982" customHeight="1">
-      <c r="A4" s="4" t="s">
+        <v>0.99701572313037301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7">
+      <c r="B4" s="40"/>
+      <c r="C4" s="47">
         <v>958</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="7">
         <v>710</v>
       </c>
       <c r="F4" s="11">
         <v>1668</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="7">
         <v>67</v>
       </c>
       <c r="L4" s="23">
-        <v>2984.27686962719e-6</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="28.7982" customHeight="1">
-      <c r="A5" s="4" t="s">
+        <v>2.9842768696271898E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5">
+      <c r="B5" s="40"/>
+      <c r="C5" s="44">
         <v>525</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="5">
         <v>293</v>
       </c>
       <c r="F5" s="11">
         <v>818</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="11">
         <v>22451</v>
       </c>
@@ -2961,15 +3579,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28.7982" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7">
+      <c r="B6" s="40"/>
+      <c r="C6" s="47">
         <v>1200</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="7">
         <v>507</v>
       </c>
@@ -2977,15 +3595,15 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.7982" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5">
+      <c r="B7" s="40"/>
+      <c r="C7" s="44">
         <v>5641</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="5">
         <v>10388</v>
       </c>
@@ -2993,15 +3611,15 @@
         <v>16029</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.7982" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45">
         <v>9629</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11">
         <v>12822</v>
       </c>
@@ -3009,558 +3627,565 @@
         <v>22451</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.1988" customHeight="1"/>
-    <row r="10" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A10" s="20" t="s">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5">
+      <c r="B11" s="40"/>
+      <c r="C11" s="44">
         <v>9044</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="22">
-        <v>402832.835953855e-6</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A12" s="4" t="s">
+        <v>0.402832835953855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7">
+      <c r="B12" s="40"/>
+      <c r="C12" s="47">
         <v>2760</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="23">
-        <v>122934.390450314e-6</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A13" s="4" t="s">
+        <v>0.122934390450314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5">
+      <c r="B13" s="40"/>
+      <c r="C13" s="44">
         <v>2550</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="22">
-        <v>113580.686829094e-6</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A14" s="4" t="s">
+        <v>0.113580686829094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7">
+      <c r="B14" s="40"/>
+      <c r="C14" s="47">
         <v>2089</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="23">
-        <v>93047.0803082268e-6</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A15" s="4" t="s">
+        <v>9.3047080308226796E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5">
+      <c r="B15" s="40"/>
+      <c r="C15" s="44">
         <v>1791</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="22">
-        <v>79773.7294552581e-6</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A16" s="4" t="s">
+        <v>7.9773729455258097E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7">
+      <c r="B16" s="40"/>
+      <c r="C16" s="47">
         <v>1181</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="23">
-        <v>52603.4475079061e-6</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A17" s="4" t="s">
+        <v>5.2603447507906097E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5">
+      <c r="B17" s="40"/>
+      <c r="C17" s="44">
         <v>926</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="22">
-        <v>41245.3788249967e-6</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A18" s="4" t="s">
+        <v>4.1245378824996702E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7">
+      <c r="B18" s="40"/>
+      <c r="C18" s="47">
         <v>625</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="23">
-        <v>27838.403634582e-6</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="9.5994" customHeight="1">
-      <c r="A19" s="4" t="s">
+        <v>2.7838403634581999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5">
+      <c r="B19" s="40"/>
+      <c r="C19" s="44">
         <v>293</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="22">
-        <v>13050.643623892e-6</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="10.1327" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="4" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="50">
+        <v>1.3050643623891999E-2</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5">
+      <c r="G20" s="40"/>
+      <c r="H20" s="44">
         <v>199</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="9.5994" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7">
+      <c r="B21" s="40"/>
+      <c r="C21" s="47">
         <v>266</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="23">
-        <v>11848.0245868781e-6</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="10.1327" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="51">
+        <v>1.18480245868781E-2</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5">
+      <c r="B23" s="40"/>
+      <c r="C23" s="44">
         <v>211</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="22">
-        <v>9398.24506703488e-6</v>
-      </c>
-      <c r="F23" s="20" t="s">
+        <v>9.3982450670348806E-3</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="5.8663" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="G23" s="39"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="7">
+      <c r="B24" s="40"/>
+      <c r="C24" s="47">
         <v>190</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="23">
-        <v>8462.87470491292e-6</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="11.1993" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="2.1332" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15.999" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="51">
+        <v>8.4628747049129201E-3</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="51"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5">
+      <c r="B27" s="40"/>
+      <c r="C27" s="44">
         <v>168</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="22">
-        <v>7482.96289697564e-6</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="3.1998" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="20" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="50">
+        <v>7.4829628969756397E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="G28" s="39"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7">
+      <c r="B29" s="40"/>
+      <c r="C29" s="47">
         <v>115</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="23">
-        <v>5122.26626876308e-6</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="11.7326" customHeight="1">
-      <c r="A30" s="4" t="s">
+        <v>5.1222662687630798E-3</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5">
+      <c r="B30" s="40"/>
+      <c r="C30" s="44">
         <v>61</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="22">
-        <v>2717.0281947352e-6</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="7.4662" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="17.5989" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="D30" s="44"/>
+      <c r="E30" s="50">
+        <v>2.7170281947352E-3</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="50"/>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7">
+      <c r="B32" s="40"/>
+      <c r="C32" s="47">
         <v>37</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="23">
-        <v>1648.03349516725e-6</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="1.5999" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="51">
+        <v>1.64803349516725E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="G33" s="39"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5">
+      <c r="B34" s="40"/>
+      <c r="C34" s="44">
         <v>29</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="22">
-        <v>1291.7019286446e-6</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A35" s="4" t="s">
+        <v>1.2917019286445999E-3</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="7">
+      <c r="B35" s="40"/>
+      <c r="C35" s="47">
         <v>27</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="23">
-        <v>1202.61903701394e-6</v>
-      </c>
-      <c r="F35" s="4" t="s">
+        <v>1.2026190370139399E-3</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5">
+      <c r="G35" s="40"/>
+      <c r="H35" s="44">
         <v>4539</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5">
+      <c r="B36" s="40"/>
+      <c r="C36" s="44">
         <v>23</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="22">
-        <v>1024.45325375262e-6</v>
-      </c>
-      <c r="F36" s="10" t="s">
+        <v>1.0244532537526201E-3</v>
+      </c>
+      <c r="F36" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11">
+      <c r="G36" s="42"/>
+      <c r="H36" s="45">
         <v>4539</v>
       </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="7">
+      <c r="B37" s="40"/>
+      <c r="C37" s="47">
         <v>21</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="23">
-        <v>935.370362121955e-6</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5">
+        <v>9.3537036212195496E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="44">
         <v>18</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="22">
-        <v>801.746024675961e-6</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A39" s="4" t="s">
+        <v>8.0174602467596103E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="7">
+      <c r="B39" s="40"/>
+      <c r="C39" s="47">
         <v>11</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="23">
-        <v>489.955903968643e-6</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A40" s="4" t="s">
+        <v>4.8995590396864303E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5">
+      <c r="B40" s="40"/>
+      <c r="C40" s="44">
         <v>8</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="22">
-        <v>356.331566522649e-6</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A41" s="4" t="s">
+        <v>3.5633156652264898E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="7">
+      <c r="B41" s="40"/>
+      <c r="C41" s="47">
         <v>3</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="23">
-        <v>133.624337445994e-6</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A42" s="4" t="s">
+        <v>1.3362433744599399E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5">
+      <c r="B42" s="40"/>
+      <c r="C42" s="44">
         <v>3</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="22">
-        <v>133.624337445994e-6</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A43" s="4" t="s">
+        <v>1.3362433744599399E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="7">
+      <c r="B43" s="40"/>
+      <c r="C43" s="47">
         <v>1</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="23">
-        <v>44.5414458153312e-6</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+        <v>4.4541445815331198E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11">
+      <c r="B45" s="42"/>
+      <c r="C45" s="45">
         <v>22451</v>
       </c>
-      <c r="D45" s="11"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="25"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="44">
         <v>24</v>
       </c>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="C47" s="44"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="45">
         <v>24</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
@@ -3574,88 +4199,86 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.987316" customWidth="1"/>
-    <col min="2" max="2" width="10.5756146666667" customWidth="1"/>
-    <col min="3" max="3" width="82288e-6" customWidth="1"/>
-    <col min="4" max="4" width="10.5756146666667" customWidth="1"/>
-    <col min="5" max="5" width="17.0477533333333" customWidth="1"/>
-    <col min="6" max="6" width="20.8466173333333" customWidth="1"/>
-    <col min="7" max="7" width="10.7163133333333" customWidth="1"/>
-    <col min="8" max="8" width="14.507572" customWidth="1"/>
-    <col min="9" max="9" width="20.8466173333333" customWidth="1"/>
-    <col min="10" max="10" width="10.7163133333333" customWidth="1"/>
-    <col min="11" max="11" width="24.626468" customWidth="1"/>
-    <col min="12" max="14" width="10.7163133333333" customWidth="1"/>
-    <col min="15" max="15" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="7.4662" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>57</v>
       </c>
@@ -3663,98 +4286,98 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="6.3996" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="44">
         <v>50564</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.3325" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="I4" s="20" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="44"/>
+      <c r="I4" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="10.666" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="47">
         <v>527</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="9.0661" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="I6" s="4" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="I6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="44">
         <v>21343</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="10.666" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="44">
         <v>13480</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="9.0661" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="I8" s="4" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="I8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="47">
         <v>50564</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="10.666" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="47">
         <v>7336</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="9.0661" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="I10" s="10" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="I10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="45">
         <v>71907</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="10.666" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="45">
         <v>71907</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="9.0661" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="4.7997" customHeight="1"/>
-    <row r="14" s="1" customFormat="1" ht="20.2654" customHeight="1">
+      <c r="I11" s="42"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="4.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
@@ -3768,7 +4391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -3782,7 +4405,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -3796,7 +4419,7 @@
         <v>13480</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -3810,7 +4433,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
@@ -3824,106 +4447,106 @@
         <v>21343</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
-    <row r="20" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5">
         <v>30784</v>
       </c>
-      <c r="C21" s="22">
-        <v>406883.607814111e-6</v>
-      </c>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="C21" s="50">
+        <v>0.40688360781411098</v>
+      </c>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="7">
         <v>44874</v>
       </c>
-      <c r="C22" s="23">
-        <v>593116.392185889e-6</v>
-      </c>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="C22" s="51">
+        <v>0.59311639218588896</v>
+      </c>
+      <c r="D22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="11">
         <v>75658</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="53">
         <v>1</v>
       </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="10.666" customHeight="1"/>
-    <row r="25" s="1" customFormat="1" ht="23.9985" customHeight="1">
+      <c r="D23" s="53"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="D25" s="46"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="5">
         <v>10440</v>
       </c>
-      <c r="C26" s="22">
-        <v>191570.178174945e-6</v>
-      </c>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="C26" s="50">
+        <v>0.19157017817494501</v>
+      </c>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="7">
         <v>44057</v>
       </c>
-      <c r="C27" s="23">
-        <v>808429.821825055e-6</v>
-      </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="C27" s="51">
+        <v>0.80842982182505496</v>
+      </c>
+      <c r="D27" s="51"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="11">
         <v>54497</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="53">
         <v>1</v>
       </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="6.3996" customHeight="1"/>
-    <row r="30" s="1" customFormat="1" ht="23.9985" customHeight="1">
+      <c r="D28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>7</v>
       </c>
@@ -3931,7 +4554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -3939,7 +4562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -3947,7 +4570,7 @@
         <v>6479</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -3955,7 +4578,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
@@ -3963,8 +4586,8 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="8.5328" customHeight="1"/>
-    <row r="36" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>6</v>
       </c>
@@ -3972,7 +4595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
@@ -3980,7 +4603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
@@ -3988,7 +4611,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
@@ -3996,7 +4619,7 @@
         <v>7033</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
@@ -4004,9 +4627,9 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="419.1738" customHeight="1"/>
-    <row r="42" s="1" customFormat="1" ht="149.8573" customHeight="1"/>
-    <row r="43" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:14" s="1" customFormat="1" ht="149.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L43" s="3" t="s">
         <v>70</v>
       </c>
@@ -4017,7 +4640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L44" s="26">
         <v>2021</v>
       </c>
@@ -4028,7 +4651,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="45" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L45" s="7">
         <v>2021</v>
       </c>
@@ -4039,7 +4662,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L46" s="26">
         <v>2021</v>
       </c>
@@ -4050,7 +4673,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L47" s="7">
         <v>2021</v>
       </c>
@@ -4061,7 +4684,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L48" s="26">
         <v>2021</v>
       </c>
@@ -4072,7 +4695,7 @@
         <v>7214</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="49" spans="12:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L49" s="7">
         <v>2021</v>
       </c>
@@ -4083,7 +4706,7 @@
         <v>6672</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="50" spans="12:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L50" s="26">
         <v>2021</v>
       </c>
@@ -4094,7 +4717,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="51" spans="12:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L51" s="7">
         <v>2021</v>
       </c>
@@ -4105,7 +4728,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="52" spans="12:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L52" s="26">
         <v>2021</v>
       </c>
@@ -4116,7 +4739,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="53" spans="12:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L53" s="7">
         <v>2021</v>
       </c>
@@ -4127,7 +4750,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="54" spans="12:14" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L54" s="26">
         <v>2021</v>
       </c>
@@ -4138,24 +4761,13 @@
         <v>8355</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="55" spans="12:14" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
@@ -4163,30 +4775,46 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.8466173333333" customWidth="1"/>
-    <col min="3" max="3" width="10.7163133333333" customWidth="1"/>
-    <col min="4" max="4" width="113.441550666667" customWidth="1"/>
-    <col min="5" max="7" width="10.7163133333333" customWidth="1"/>
-    <col min="8" max="8" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="113.42578125" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.998" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>67</v>
       </c>
@@ -4194,7 +4822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
@@ -4202,7 +4830,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -4210,7 +4838,7 @@
         <v>13480</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
@@ -4218,7 +4846,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -4226,17 +4854,16 @@
         <v>21343</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="22.3986" customHeight="1"/>
-    <row r="8" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4247,7 +4874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -4258,7 +4885,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -4269,7 +4896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4280,7 +4907,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -4289,17 +4916,16 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.1988" customHeight="1"/>
-    <row r="15" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -4310,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
@@ -4321,7 +4947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -4332,7 +4958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -4343,7 +4969,7 @@
         <v>11558</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -4354,7 +4980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -4365,7 +4991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -4376,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -4387,7 +5013,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -4398,7 +5024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
@@ -4407,17 +5033,16 @@
         <v>13480</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="30.3981" customHeight="1"/>
-    <row r="27" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
@@ -4428,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
@@ -4439,7 +5064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
@@ -4450,7 +5075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -4461,7 +5086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -4472,7 +5097,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4483,7 +5108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -4494,7 +5119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -4505,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
@@ -4516,7 +5141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>61</v>
       </c>
@@ -4527,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>61</v>
       </c>
@@ -4538,7 +5163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>61</v>
       </c>
@@ -4549,7 +5174,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>61</v>
       </c>
@@ -4560,7 +5185,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>61</v>
       </c>
@@ -4571,7 +5196,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>61</v>
       </c>
@@ -4582,7 +5207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>61</v>
       </c>
@@ -4593,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
@@ -4604,7 +5229,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -4615,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>61</v>
       </c>
@@ -4626,7 +5251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
@@ -4637,7 +5262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
@@ -4648,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="49" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -4659,7 +5284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="50" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>61</v>
       </c>
@@ -4670,7 +5295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.2654" customHeight="1">
+    <row r="51" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>4</v>
       </c>
@@ -4679,8 +5304,8 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="178.1222" customHeight="1"/>
-    <row r="53" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="52" spans="1:7" s="1" customFormat="1" ht="178.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="3" t="s">
         <v>70</v>
       </c>
@@ -4691,7 +5316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="54" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="26">
         <v>2021</v>
       </c>
@@ -4702,7 +5327,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="55" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="7">
         <v>2021</v>
       </c>
@@ -4713,7 +5338,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="26">
         <v>2021</v>
       </c>
@@ -4724,7 +5349,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="57" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E57" s="7">
         <v>2021</v>
       </c>
@@ -4735,7 +5360,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="58" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="26">
         <v>2021</v>
       </c>
@@ -4746,7 +5371,7 @@
         <v>7214</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="7">
         <v>2021</v>
       </c>
@@ -4757,7 +5382,7 @@
         <v>6672</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="26">
         <v>2021</v>
       </c>
@@ -4768,7 +5393,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="7">
         <v>2021</v>
       </c>
@@ -4779,7 +5404,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="26">
         <v>2021</v>
       </c>
@@ -4790,7 +5415,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E63" s="7">
         <v>2021</v>
       </c>
@@ -4801,7 +5426,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E64" s="26">
         <v>2021</v>
       </c>
@@ -4812,26 +5437,33 @@
         <v>8355</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="65" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.015556" customWidth="1"/>
-    <col min="2" max="10" width="26.234996" customWidth="1"/>
-    <col min="11" max="11" width="10.7163133333333" customWidth="1"/>
-    <col min="12" max="12" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="70.3956" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="70.349999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>109</v>
       </c>
@@ -4848,7 +5480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>110</v>
       </c>
@@ -4863,7 +5495,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
@@ -4878,7 +5510,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
@@ -4895,7 +5527,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -4910,7 +5542,7 @@
         <v>14267</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>114</v>
       </c>
@@ -4923,7 +5555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>115</v>
       </c>
@@ -4936,7 +5568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>116</v>
       </c>
@@ -4949,7 +5581,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -4966,8 +5598,8 @@
         <v>91222</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
-    <row r="12" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>117</v>
       </c>
@@ -4975,7 +5607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
@@ -4983,7 +5615,7 @@
         <v>38669</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>119</v>
       </c>
@@ -4991,7 +5623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>120</v>
       </c>
@@ -4999,7 +5631,7 @@
         <v>38158</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
@@ -5007,8 +5639,8 @@
         <v>76842</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="19.1988" customHeight="1"/>
-    <row r="18" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>121</v>
       </c>
@@ -5016,7 +5648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
@@ -5024,7 +5656,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="20" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>123</v>
       </c>
@@ -5032,7 +5664,7 @@
         <v>9667</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="21" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
@@ -5040,8 +5672,8 @@
         <v>14379</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="12.2659" customHeight="1"/>
-    <row r="23" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="22" spans="1:2" s="1" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>124</v>
       </c>
@@ -5049,39 +5681,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="24" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="55">
         <v>5504</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="25" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="56">
         <v>4163</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="26" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="55">
         <v>78</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="27" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="56">
         <v>4634</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="28" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>4</v>
       </c>
@@ -5089,8 +5721,8 @@
         <v>14379</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="37.8643" customHeight="1"/>
-    <row r="30" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="29" spans="1:2" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>129</v>
       </c>
@@ -5098,15 +5730,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="31" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="54">
         <v>3619</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="32" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
@@ -5114,7 +5746,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -5122,7 +5754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -5130,13 +5762,13 @@
         <v>481</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>4</v>
       </c>
@@ -5144,9 +5776,8 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="141.8578" customHeight="1"/>
-    <row r="38" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A38" s="1"/>
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="28">
         <v>2</v>
       </c>
@@ -5176,8 +5807,7 @@
       </c>
       <c r="K38" s="29"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>131</v>
       </c>
@@ -5209,7 +5839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>140</v>
       </c>
@@ -5244,7 +5874,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>141</v>
       </c>
@@ -5279,7 +5909,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>142</v>
       </c>
@@ -5314,7 +5944,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>4</v>
       </c>
@@ -5349,9 +5979,8 @@
         <v>13746</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="45.3305" customHeight="1"/>
-    <row r="45" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A45" s="1"/>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="45.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -5362,7 +5991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>143</v>
       </c>
@@ -5376,7 +6005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>144</v>
       </c>
@@ -5390,7 +6019,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>145</v>
       </c>
@@ -5404,7 +6033,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>146</v>
       </c>
@@ -5418,7 +6047,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>147</v>
       </c>
@@ -5432,7 +6061,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>148</v>
       </c>
@@ -5446,7 +6075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>149</v>
       </c>
@@ -5460,7 +6089,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>150</v>
       </c>
@@ -5474,7 +6103,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>151</v>
       </c>
@@ -5488,7 +6117,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>152</v>
       </c>
@@ -5502,7 +6131,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>153</v>
       </c>
@@ -5516,7 +6145,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +6159,7 @@
         <v>72259</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>154</v>
       </c>
@@ -5544,7 +6173,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>155</v>
       </c>
@@ -5558,7 +6187,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>4</v>
       </c>
@@ -5572,9 +6201,7 @@
         <v>91222</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="23.9985" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3" t="s">
         <v>125</v>
       </c>
@@ -5594,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>130</v>
       </c>
@@ -5616,7 +6243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="63" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>130</v>
       </c>
@@ -5640,7 +6267,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="64" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>130</v>
       </c>
@@ -5664,7 +6291,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="65" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>59</v>
       </c>
@@ -5682,7 +6309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="66" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>59</v>
       </c>
@@ -5700,7 +6327,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="67" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>59</v>
       </c>
@@ -5718,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="68" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>59</v>
       </c>
@@ -5736,7 +6363,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="69" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>60</v>
       </c>
@@ -5758,7 +6385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="70" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>60</v>
       </c>
@@ -5776,7 +6403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="71" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>60</v>
       </c>
@@ -5796,7 +6423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="72" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>60</v>
       </c>
@@ -5818,7 +6445,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="73" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>60</v>
       </c>
@@ -5840,7 +6467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="74" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>60</v>
       </c>
@@ -5858,7 +6485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="75" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>60</v>
       </c>
@@ -5882,7 +6509,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="76" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>60</v>
       </c>
@@ -5900,7 +6527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="77" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>61</v>
       </c>
@@ -5920,7 +6547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="78" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -5940,7 +6567,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="79" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>61</v>
       </c>
@@ -5954,7 +6581,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="80" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>61</v>
       </c>
@@ -5976,7 +6603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="81" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>61</v>
       </c>
@@ -5994,7 +6621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="82" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>61</v>
       </c>
@@ -6012,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="83" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>61</v>
       </c>
@@ -6030,7 +6657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="84" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>61</v>
       </c>
@@ -6048,7 +6675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="85" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>61</v>
       </c>
@@ -6062,7 +6689,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="86" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>61</v>
       </c>
@@ -6080,7 +6707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>61</v>
       </c>
@@ -6102,7 +6729,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="88" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>61</v>
       </c>
@@ -6124,7 +6751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="89" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>61</v>
       </c>
@@ -6146,7 +6773,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="90" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>61</v>
       </c>
@@ -6160,7 +6787,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="91" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>61</v>
       </c>
@@ -6178,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="92" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>61</v>
       </c>
@@ -6198,7 +6825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>61</v>
       </c>
@@ -6212,7 +6839,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="94" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>61</v>
       </c>
@@ -6230,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>61</v>
       </c>
@@ -6248,7 +6875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="96" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>61</v>
       </c>
@@ -6266,7 +6893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="97" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>61</v>
       </c>
@@ -6284,7 +6911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="98" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -6302,7 +6929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>61</v>
       </c>
@@ -6322,7 +6949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="100" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>83</v>
       </c>
@@ -6336,7 +6963,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="10" t="s">
         <v>4</v>
@@ -6360,8 +6987,8 @@
         <v>14380</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="17.5989" customHeight="1"/>
-    <row r="103" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="102" spans="1:8" s="1" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>157</v>
       </c>
@@ -6369,7 +6996,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="104" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="30" t="s">
         <v>159</v>
       </c>
@@ -6377,7 +7004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="105" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
         <v>160</v>
       </c>
@@ -6385,7 +7012,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="106" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="30" t="s">
         <v>161</v>
       </c>
@@ -6393,7 +7020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="107" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31" t="s">
         <v>162</v>
       </c>
@@ -6401,7 +7028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="108" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="30" t="s">
         <v>163</v>
       </c>
@@ -6409,7 +7036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="109" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="31" t="s">
         <v>164</v>
       </c>
@@ -6417,7 +7044,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="110" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="30" t="s">
         <v>165</v>
       </c>
@@ -6425,7 +7052,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="111" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="s">
         <v>166</v>
       </c>
@@ -6433,7 +7060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="112" spans="1:8" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="30" t="s">
         <v>167</v>
       </c>
@@ -6441,7 +7068,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="113" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="s">
         <v>168</v>
       </c>
@@ -6449,7 +7076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="114" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="30" t="s">
         <v>169</v>
       </c>
@@ -6457,7 +7084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="115" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="31" t="s">
         <v>170</v>
       </c>
@@ -6465,7 +7092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="30" t="s">
         <v>171</v>
       </c>
@@ -6473,7 +7100,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="31" t="s">
         <v>172</v>
       </c>
@@ -6481,7 +7108,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="118" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="30" t="s">
         <v>173</v>
       </c>
@@ -6489,7 +7116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="119" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="31" t="s">
         <v>174</v>
       </c>
@@ -6497,7 +7124,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="120" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="30" t="s">
         <v>175</v>
       </c>
@@ -6505,7 +7132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="121" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="31" t="s">
         <v>176</v>
       </c>
@@ -6513,7 +7140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="122" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="30" t="s">
         <v>177</v>
       </c>
@@ -6521,7 +7148,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="123" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="31" t="s">
         <v>178</v>
       </c>
@@ -6529,7 +7156,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="124" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="30" t="s">
         <v>179</v>
       </c>
@@ -6537,7 +7164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="125" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="31" t="s">
         <v>180</v>
       </c>
@@ -6545,7 +7172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="126" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="30" t="s">
         <v>181</v>
       </c>
@@ -6553,7 +7180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="127" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="31" t="s">
         <v>182</v>
       </c>
@@ -6561,7 +7188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="128" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="30" t="s">
         <v>183</v>
       </c>
@@ -6569,7 +7196,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="129" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="31" t="s">
         <v>184</v>
       </c>
@@ -6577,7 +7204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="130" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="30" t="s">
         <v>185</v>
       </c>
@@ -6585,7 +7212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="131" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="31" t="s">
         <v>186</v>
       </c>
@@ -6593,7 +7220,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="132" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="30" t="s">
         <v>187</v>
       </c>
@@ -6601,7 +7228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="133" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="31" t="s">
         <v>188</v>
       </c>
@@ -6609,7 +7236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="134" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="30" t="s">
         <v>189</v>
       </c>
@@ -6617,7 +7244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="135" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="31" t="s">
         <v>190</v>
       </c>
@@ -6625,7 +7252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="136" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="30" t="s">
         <v>191</v>
       </c>
@@ -6633,7 +7260,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="137" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="31" t="s">
         <v>192</v>
       </c>
@@ -6641,7 +7268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="138" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="30" t="s">
         <v>193</v>
       </c>
@@ -6649,7 +7276,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="139" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="31" t="s">
         <v>194</v>
       </c>
@@ -6657,7 +7284,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="140" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="30" t="s">
         <v>195</v>
       </c>
@@ -6665,7 +7292,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="141" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="31" t="s">
         <v>196</v>
       </c>
@@ -6673,7 +7300,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="142" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="30" t="s">
         <v>197</v>
       </c>
@@ -6681,32 +7308,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="143" spans="1:2" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.22556666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.5071666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.7394333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.7815666666667" customWidth="1"/>
-    <col min="5" max="5" width="15.8309" customWidth="1"/>
-    <col min="6" max="6" width="18.6829" customWidth="1"/>
-    <col min="7" max="7" width="30.4711666666667" customWidth="1"/>
-    <col min="8" max="8" width="50.2450333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.6191666666667" customWidth="1"/>
-    <col min="10" max="10" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34.1312" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>158</v>
       </c>
@@ -6735,12 +7367,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="26">
-        <v>1.303852e6</v>
+        <v>1303852</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>206</v>
@@ -6764,12 +7396,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="7">
-        <v>1.30786e6</v>
+        <v>1307860</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>208</v>
@@ -6793,12 +7425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="26">
-        <v>1.309975e6</v>
+        <v>1309975</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>210</v>
@@ -6822,12 +7454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="7">
-        <v>1.327899e6</v>
+        <v>1327899</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>211</v>
@@ -6851,12 +7483,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="26">
-        <v>1.332416e6</v>
+        <v>1332416</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>212</v>
@@ -6880,12 +7512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="7">
-        <v>1.332495e6</v>
+        <v>1332495</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>213</v>
@@ -6909,12 +7541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="26">
-        <v>1.333105e6</v>
+        <v>1333105</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>214</v>
@@ -6938,12 +7570,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="7">
-        <v>1.335466e6</v>
+        <v>1335466</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>215</v>
@@ -6967,12 +7599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="26">
-        <v>1.335979e6</v>
+        <v>1335979</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>216</v>
@@ -6996,12 +7628,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="7">
-        <v>1.34093e6</v>
+        <v>1340930</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>217</v>
@@ -7025,12 +7657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="26">
-        <v>1.34186e6</v>
+        <v>1341860</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>218</v>
@@ -7054,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>66</v>
       </c>
@@ -7083,12 +7715,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="26">
-        <v>1.103878e6</v>
+        <v>1103878</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>220</v>
@@ -7112,12 +7744,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="7">
-        <v>1.303212e6</v>
+        <v>1303212</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>222</v>
@@ -7141,12 +7773,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="26">
-        <v>1.323228e6</v>
+        <v>1323228</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>223</v>
@@ -7170,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -7185,41 +7817,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
   </hyperlinks>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.9911186666667" customWidth="1"/>
-    <col min="2" max="4" width="10.0660573333333" customWidth="1"/>
-    <col min="5" max="5" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41.0641" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>224</v>
       </c>
@@ -7233,7 +7872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="5">
         <v>35558</v>
@@ -7245,8 +7884,8 @@
         <v>91222</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.4657" customHeight="1"/>
-    <row r="5" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>225</v>
       </c>
@@ -7260,7 +7899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="5">
         <v>8176</v>
@@ -7272,8 +7911,10 @@
         <v>17383</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="38.3976" customHeight="1"/>
-    <row r="8" s="1" customFormat="1" ht="34.6645" customHeight="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>226</v>
       </c>
@@ -7287,7 +7928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="5">
         <v>1161</v>
@@ -7299,8 +7940,8 @@
         <v>41475</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="46.3971" customHeight="1"/>
-    <row r="11" s="1" customFormat="1" ht="34.6645" customHeight="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="46.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>227</v>
       </c>
@@ -7314,7 +7955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="5">
         <v>203</v>
@@ -7326,31 +7967,36 @@
         <v>5027</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.2954333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.7163133333333" customWidth="1"/>
-    <col min="3" max="3" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30.3981" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>229</v>
       </c>
@@ -7358,25 +8004,32 @@
         <v>15025</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5951346666667" customWidth="1"/>
-    <col min="2" max="4" width="15.454436" customWidth="1"/>
-    <col min="5" max="5" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5989" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -7390,7 +8043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="5">
         <v>24878</v>
@@ -7402,8 +8055,8 @@
         <v>73687</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="32.5313" customHeight="1"/>
-    <row r="5" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>230</v>
       </c>
@@ -7417,7 +8070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -7431,9 +8084,10 @@
         <v>35699</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
